--- a/Lab1/analysis/Func2/double-0.xlsx
+++ b/Lab1/analysis/Func2/double-0.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilan\Programming\University\AILab\Lab1\analysis\Func2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuval\Desktop\AI lab\AILab\Lab1\analysis\Func2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -566,7 +566,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -609,6 +609,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1894,7 +1895,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C525-4896-813D-3BB159DC7496}"/>
             </c:ext>
@@ -1908,11 +1909,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="391972944"/>
-        <c:axId val="391971632"/>
+        <c:axId val="233483840"/>
+        <c:axId val="233485472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="391972944"/>
+        <c:axId val="233483840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1964,6 +1965,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2030,13 +2032,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391971632"/>
+        <c:crossAx val="233485472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391971632"/>
+        <c:axId val="233485472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.14000000000000001"/>
@@ -2078,11 +2080,12 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time (Seconds)</a:t>
+                  <a:t>Time (Sec)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2149,7 +2152,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391972944"/>
+        <c:crossAx val="233483840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2199,7 +2202,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2242,6 +2245,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3527,7 +3531,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-125C-4CBD-9487-B9223EA442CC}"/>
             </c:ext>
@@ -3541,11 +3545,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="391972944"/>
-        <c:axId val="391971632"/>
+        <c:axId val="290321728"/>
+        <c:axId val="290322272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="391972944"/>
+        <c:axId val="290321728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3603,13 +3607,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391971632"/>
+        <c:crossAx val="290322272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391971632"/>
+        <c:axId val="290322272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0000000000000008E-2"/>
@@ -3667,7 +3671,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391972944"/>
+        <c:crossAx val="290321728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
